--- a/data/taux56.xlsx
+++ b/data/taux56.xlsx
@@ -1,21 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdel\Desktop\Cours Master\Git_dossier\ADA-Rapport-Dept-13\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BB6BCE-6381-422A-9A15-A8B9C6C8FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>Âge</t>
+  </si>
+  <si>
+    <t>Femmes en âge de procréer</t>
+  </si>
+  <si>
+    <t>Naissances</t>
+  </si>
+  <si>
+    <t>taux_par_âge</t>
+  </si>
+  <si>
+    <t>CSP 3-4</t>
+  </si>
+  <si>
+    <t>CSP 5-6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -63,13 +95,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +147,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +216,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,470 +392,830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Âge</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Femmes en âge de procréer</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Naissances</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>taux_par_âge</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>19</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1462.599128618514</v>
       </c>
-      <c r="C2">
-        <v>4.47927076443982</v>
-      </c>
-      <c r="D2">
-        <v>0.003062541660797157</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="C3">
+        <v>4.4792707644398204</v>
+      </c>
+      <c r="D3">
+        <v>3.0625416607971568E-3</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>966.82245475048501</v>
+      </c>
+      <c r="H3">
+        <v>4.9174596934410397</v>
+      </c>
+      <c r="I3">
+        <v>5.0862075754230648E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B3">
-        <v>2397.254665097549</v>
-      </c>
-      <c r="C3">
-        <v>5.757965681311029</v>
-      </c>
-      <c r="D3">
-        <v>0.00240189987536294</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="B4">
+        <v>2397.2546650975492</v>
+      </c>
+      <c r="C4">
+        <v>5.7579656813110294</v>
+      </c>
+      <c r="D4">
+        <v>2.40189987536294E-3</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>1352.649516720368</v>
+      </c>
+      <c r="H4">
+        <v>11.04231213740908</v>
+      </c>
+      <c r="I4">
+        <v>8.1634688076348497E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3272.422536031992</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>44.22497255995588</v>
       </c>
-      <c r="D4">
-        <v>0.01351444444383436</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
+      <c r="D5">
+        <v>1.351444444383436E-2</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>2113.0843849145758</v>
+      </c>
+      <c r="H5">
+        <v>13.58423259432597</v>
+      </c>
+      <c r="I5">
+        <v>6.4286275982656186E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>22</v>
       </c>
-      <c r="B5">
-        <v>3744.038608279766</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>3744.0386082797659</v>
+      </c>
+      <c r="C6">
         <v>64.66015089787922</v>
       </c>
-      <c r="D5">
-        <v>0.01727016135861589</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
+      <c r="D6">
+        <v>1.727016135861589E-2</v>
+      </c>
+      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>2851.7214067821242</v>
+      </c>
+      <c r="H6">
+        <v>40.572206372784542</v>
+      </c>
+      <c r="I6">
+        <v>1.422726858110804E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>4092.535901070682</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>105.4371768678734</v>
       </c>
-      <c r="D6">
-        <v>0.02576328697331382</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="D7">
+        <v>2.5763286973313822E-2</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>3611.6262808533211</v>
+      </c>
+      <c r="H7">
+        <v>77.241629366019694</v>
+      </c>
+      <c r="I7">
+        <v>2.1386938558817271E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>4152.969915518069</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>4152.9699155180688</v>
+      </c>
+      <c r="C8">
         <v>199.3601601785511</v>
       </c>
-      <c r="D7">
-        <v>0.04800423895044796</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
+      <c r="D8">
+        <v>4.8004238950447961E-2</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>4080.2610214396818</v>
+      </c>
+      <c r="H8">
+        <v>167.64002687445739</v>
+      </c>
+      <c r="I8">
+        <v>4.108561339423996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>25</v>
       </c>
-      <c r="B8">
-        <v>4253.457421387134</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>4253.4574213871338</v>
+      </c>
+      <c r="C9">
         <v>236.093616890394</v>
       </c>
-      <c r="D8">
-        <v>0.05550628430021979</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
+      <c r="D9">
+        <v>5.5506284300219789E-2</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>4488.6628907548411</v>
+      </c>
+      <c r="H9">
+        <v>239.40655309381461</v>
+      </c>
+      <c r="I9">
+        <v>5.333582826790418E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>4575.255527962447</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>4575.2555279624466</v>
+      </c>
+      <c r="C10">
         <v>316.3773116519975</v>
       </c>
-      <c r="D9">
-        <v>0.06914964852091958</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
+      <c r="D10">
+        <v>6.9149648520919579E-2</v>
+      </c>
+      <c r="F10">
+        <v>28</v>
+      </c>
+      <c r="G10">
+        <v>4558.2918608569134</v>
+      </c>
+      <c r="H10">
+        <v>307.95171075922877</v>
+      </c>
+      <c r="I10">
+        <v>6.7558576800156228E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>4541.616376692615</v>
-      </c>
-      <c r="C10">
-        <v>344.7425236149768</v>
-      </c>
-      <c r="D10">
-        <v>0.07590745122907805</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
+      <c r="B11">
+        <v>4541.6163766926147</v>
+      </c>
+      <c r="C11">
+        <v>344.74252361497679</v>
+      </c>
+      <c r="D11">
+        <v>7.5907451229078049E-2</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>5069.9717727752968</v>
+      </c>
+      <c r="H11">
+        <v>384.79104593770791</v>
+      </c>
+      <c r="I11">
+        <v>7.589609236168858E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>4422.209571439776</v>
-      </c>
-      <c r="C11">
-        <v>395.4494659907286</v>
-      </c>
-      <c r="D11">
-        <v>0.08942350189477312</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
+      <c r="B12">
+        <v>4422.2095714397756</v>
+      </c>
+      <c r="C12">
+        <v>395.44946599072858</v>
+      </c>
+      <c r="D12">
+        <v>8.9423501894773119E-2</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>5107.4690123921246</v>
+      </c>
+      <c r="H12">
+        <v>558.53669721444794</v>
+      </c>
+      <c r="I12">
+        <v>0.10935684501644249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>29</v>
       </c>
-      <c r="B12">
-        <v>4563.254713593291</v>
-      </c>
-      <c r="C12">
-        <v>479.191267173093</v>
-      </c>
-      <c r="D12">
-        <v>0.1050108523956925</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
+      <c r="B13">
+        <v>4563.2547135932909</v>
+      </c>
+      <c r="C13">
+        <v>479.19126717309302</v>
+      </c>
+      <c r="D13">
+        <v>0.10501085239569249</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>5380.1158621525174</v>
+      </c>
+      <c r="H13">
+        <v>675.68763599194665</v>
+      </c>
+      <c r="I13">
+        <v>0.12558979273015369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>30</v>
       </c>
-      <c r="B13">
-        <v>4691.597581601262</v>
-      </c>
-      <c r="C13">
-        <v>411.3872921617167</v>
-      </c>
-      <c r="D13">
-        <v>0.08768597157075617</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
+      <c r="B14">
+        <v>4691.5975816012624</v>
+      </c>
+      <c r="C14">
+        <v>411.38729216171669</v>
+      </c>
+      <c r="D14">
+        <v>8.7685971570756166E-2</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>5459.9372433523104</v>
+      </c>
+      <c r="H14">
+        <v>727.40029864050564</v>
+      </c>
+      <c r="I14">
+        <v>0.1332250291935396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>31</v>
       </c>
-      <c r="B14">
-        <v>4740.91749587809</v>
-      </c>
-      <c r="C14">
-        <v>526.1308331502332</v>
-      </c>
-      <c r="D14">
-        <v>0.1109765849348082</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
+      <c r="B15">
+        <v>4740.9174958780904</v>
+      </c>
+      <c r="C15">
+        <v>526.13083315023323</v>
+      </c>
+      <c r="D15">
+        <v>0.11097658493480821</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>5816.6367196360416</v>
+      </c>
+      <c r="H15">
+        <v>814.79607777401588</v>
+      </c>
+      <c r="I15">
+        <v>0.14008027611959911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>32</v>
       </c>
-      <c r="B15">
-        <v>4628.377853681272</v>
-      </c>
-      <c r="C15">
-        <v>396.8580573726297</v>
-      </c>
-      <c r="D15">
-        <v>0.08574452430606565</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
+      <c r="B16">
+        <v>4628.3778536812724</v>
+      </c>
+      <c r="C16">
+        <v>396.85805737262967</v>
+      </c>
+      <c r="D16">
+        <v>8.5744524306065648E-2</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>5311.9799843643041</v>
+      </c>
+      <c r="H16">
+        <v>687.09004953132114</v>
+      </c>
+      <c r="I16">
+        <v>0.12934725875356379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>33</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>4731.719790078484</v>
       </c>
-      <c r="C16">
-        <v>382.9372206557331</v>
-      </c>
-      <c r="D16">
-        <v>0.08092981783466545</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
+      <c r="C17">
+        <v>382.93722065573309</v>
+      </c>
+      <c r="D17">
+        <v>8.0929817834665449E-2</v>
+      </c>
+      <c r="F17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>5549.1062101582511</v>
+      </c>
+      <c r="H17">
+        <v>659.00396378878713</v>
+      </c>
+      <c r="I17">
+        <v>0.1187585781981263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>4985.587781795507</v>
       </c>
-      <c r="C17">
-        <v>420.9103919861874</v>
-      </c>
-      <c r="D17">
-        <v>0.08442542994090077</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
+      <c r="C18">
+        <v>420.91039198618739</v>
+      </c>
+      <c r="D18">
+        <v>8.442542994090077E-2</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>5778.8377258670434</v>
+      </c>
+      <c r="H18">
+        <v>531.84123197014026</v>
+      </c>
+      <c r="I18">
+        <v>9.203256038658604E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>4819.281303156646</v>
-      </c>
-      <c r="C18">
-        <v>361.265014703857</v>
-      </c>
-      <c r="D18">
-        <v>0.07496242530338024</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
+      <c r="B19">
+        <v>4819.2813031566457</v>
+      </c>
+      <c r="C19">
+        <v>361.26501470385699</v>
+      </c>
+      <c r="D19">
+        <v>7.4962425303380237E-2</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>5554.9432960570339</v>
+      </c>
+      <c r="H19">
+        <v>498.40760114650232</v>
+      </c>
+      <c r="I19">
+        <v>8.9723256311235081E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>4790.355969558487</v>
-      </c>
-      <c r="C19">
+      <c r="B20">
+        <v>4790.3559695584872</v>
+      </c>
+      <c r="C20">
         <v>339.927662691492</v>
       </c>
-      <c r="D19">
-        <v>0.07096083565639948</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
+      <c r="D20">
+        <v>7.0960835656399476E-2</v>
+      </c>
+      <c r="F20">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>5772.7361757056051</v>
+      </c>
+      <c r="H20">
+        <v>351.28767113325301</v>
+      </c>
+      <c r="I20">
+        <v>6.0852888550777202E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>37</v>
       </c>
-      <c r="B20">
-        <v>4714.050662283916</v>
-      </c>
-      <c r="C20">
+      <c r="B21">
+        <v>4714.0506622839157</v>
+      </c>
+      <c r="C21">
         <v>318.6850958077473</v>
       </c>
-      <c r="D20">
-        <v>0.06760323947247253</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
+      <c r="D21">
+        <v>6.7603239472472529E-2</v>
+      </c>
+      <c r="F21">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>5781.2177330060485</v>
+      </c>
+      <c r="H21">
+        <v>322.71110569140961</v>
+      </c>
+      <c r="I21">
+        <v>5.5820610915411788E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>38</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>4719.965797609022</v>
       </c>
-      <c r="C21">
-        <v>239.8239639179046</v>
-      </c>
-      <c r="D21">
-        <v>0.05081053003379633</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
+      <c r="C22">
+        <v>239.82396391790459</v>
+      </c>
+      <c r="D22">
+        <v>5.0810530033796333E-2</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>5888.6438672304739</v>
+      </c>
+      <c r="H22">
+        <v>238.88564974551619</v>
+      </c>
+      <c r="I22">
+        <v>4.0567175589422758E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>39</v>
       </c>
-      <c r="B22">
-        <v>4831.768919422952</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>4831.7689194229524</v>
+      </c>
+      <c r="C23">
         <v>214.7547844305607</v>
       </c>
-      <c r="D22">
-        <v>0.04444641041654128</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
+      <c r="D23">
+        <v>4.4446410416541279E-2</v>
+      </c>
+      <c r="F23">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>5908.3831230693859</v>
+      </c>
+      <c r="H23">
+        <v>166.5314552873111</v>
+      </c>
+      <c r="I23">
+        <v>2.8185622329920709E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B23">
-        <v>4922.83263953101</v>
-      </c>
-      <c r="C23">
-        <v>154.1531512052684</v>
-      </c>
-      <c r="D23">
-        <v>0.0313139126378983</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
+      <c r="B24">
+        <v>4922.8326395310096</v>
+      </c>
+      <c r="C24">
+        <v>154.15315120526839</v>
+      </c>
+      <c r="D24">
+        <v>3.1313912637898303E-2</v>
+      </c>
+      <c r="F24">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>5262.0154385141996</v>
+      </c>
+      <c r="H24">
+        <v>93.127414484563019</v>
+      </c>
+      <c r="I24">
+        <v>1.76980504091525E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>41</v>
       </c>
-      <c r="B24">
-        <v>4742.909013216983</v>
-      </c>
-      <c r="C24">
+      <c r="B25">
+        <v>4742.9090132169831</v>
+      </c>
+      <c r="C25">
         <v>103.855788089043</v>
       </c>
-      <c r="D24">
-        <v>0.02189706523984117</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
+      <c r="D25">
+        <v>2.1897065239841172E-2</v>
+      </c>
+      <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="G25">
+        <v>5563.0866379775634</v>
+      </c>
+      <c r="H25">
+        <v>75.305604031221179</v>
+      </c>
+      <c r="I25">
+        <v>1.3536658501259329E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>42</v>
       </c>
-      <c r="B25">
-        <v>4596.361178147428</v>
-      </c>
-      <c r="C25">
+      <c r="B26">
+        <v>4596.3611781474283</v>
+      </c>
+      <c r="C26">
         <v>110.8567456636429</v>
       </c>
-      <c r="D25">
-        <v>0.02411837133049756</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
+      <c r="D26">
+        <v>2.4118371330497559E-2</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>5457.8113932454125</v>
+      </c>
+      <c r="H26">
+        <v>32.683976163243273</v>
+      </c>
+      <c r="I26">
+        <v>5.9884766636848167E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>43</v>
       </c>
-      <c r="B26">
-        <v>4873.657289738784</v>
-      </c>
-      <c r="C26">
-        <v>32.96617141284556</v>
-      </c>
-      <c r="D26">
-        <v>0.006764154607722215</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
+      <c r="B27">
+        <v>4873.6572897387841</v>
+      </c>
+      <c r="C27">
+        <v>32.966171412845561</v>
+      </c>
+      <c r="D27">
+        <v>6.7641546077222151E-3</v>
+      </c>
+      <c r="F27">
+        <v>45</v>
+      </c>
+      <c r="G27">
+        <v>5533.2800886255754</v>
+      </c>
+      <c r="H27">
+        <v>40.915124597164329</v>
+      </c>
+      <c r="I27">
+        <v>7.394370778604005E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>44</v>
       </c>
-      <c r="B27">
-        <v>4885.37823451103</v>
-      </c>
-      <c r="C27">
-        <v>35.55929809257949</v>
-      </c>
-      <c r="D27">
-        <v>0.007278719555710831</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
+      <c r="B28">
+        <v>4885.3782345110303</v>
+      </c>
+      <c r="C28">
+        <v>35.559298092579489</v>
+      </c>
+      <c r="D28">
+        <v>7.278719555710831E-3</v>
+      </c>
+      <c r="F28">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>5834.0073949486032</v>
+      </c>
+      <c r="H28">
+        <v>17.836825306180138</v>
+      </c>
+      <c r="I28">
+        <v>3.0573881893986321E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>45</v>
       </c>
-      <c r="B28">
-        <v>5196.048032962229</v>
-      </c>
-      <c r="C28">
-        <v>35.6633058395431</v>
-      </c>
-      <c r="D28">
-        <v>0.006863544296223857</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
+      <c r="B29">
+        <v>5196.0480329622287</v>
+      </c>
+      <c r="C29">
+        <v>35.663305839543099</v>
+      </c>
+      <c r="D29">
+        <v>6.8635442962238571E-3</v>
+      </c>
+      <c r="F29">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>5487.1535469088167</v>
+      </c>
+      <c r="H29">
+        <v>6.8774164637271147</v>
+      </c>
+      <c r="I29">
+        <v>1.253366869531381E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>46</v>
       </c>
-      <c r="B29">
-        <v>5215.001842222069</v>
-      </c>
-      <c r="C29">
-        <v>7.446955756788857</v>
-      </c>
-      <c r="D29">
-        <v>0.001427987176628833</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
+      <c r="B30">
+        <v>5215.0018422220692</v>
+      </c>
+      <c r="C30">
+        <v>7.4469557567888574</v>
+      </c>
+      <c r="D30">
+        <v>1.427987176628833E-3</v>
+      </c>
+      <c r="F30">
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <v>5512.6160236323076</v>
+      </c>
+      <c r="H30">
+        <v>7.4858112141012212</v>
+      </c>
+      <c r="I30">
+        <v>1.357941707169504E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>47</v>
       </c>
-      <c r="B30">
-        <v>5080.532593715699</v>
-      </c>
-      <c r="C30">
-        <v>2.64765306661654</v>
-      </c>
-      <c r="D30">
-        <v>0.0005211369118843014</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
+      <c r="B31">
+        <v>5080.5325937156986</v>
+      </c>
+      <c r="C31">
+        <v>2.6476530666165399</v>
+      </c>
+      <c r="D31">
+        <v>5.2113691188430142E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>48</v>
       </c>
-      <c r="B31">
-        <v>5435.895628765795</v>
-      </c>
-      <c r="C31">
-        <v>4.689425764134934</v>
-      </c>
-      <c r="D31">
-        <v>0.0008626776679300694</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
+      <c r="B32">
+        <v>5435.8956287657948</v>
+      </c>
+      <c r="C32">
+        <v>4.6894257641349339</v>
+      </c>
+      <c r="D32">
+        <v>8.6267766793006939E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>49</v>
       </c>
-      <c r="B32">
-        <v>5662.112491024341</v>
-      </c>
-      <c r="C32">
-        <v>5.85961855533129</v>
-      </c>
-      <c r="D32">
-        <v>0.001034882045282576</v>
+      <c r="B33">
+        <v>5662.1124910243407</v>
+      </c>
+      <c r="C33">
+        <v>5.8596185553312896</v>
+      </c>
+      <c r="D33">
+        <v>1.0348820452825761E-3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>